--- a/data/trans_camb/P41_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P41_R-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:T32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,6 +529,12 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -546,22 +552,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +595,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M1</t>
+          <t>M5/M1</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -642,6 +684,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +704,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>8,23</t>
+          <t>3,64</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>15,68</t>
+          <t>3,13</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>14,58</t>
+          <t>4,94</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-4,98</t>
+          <t>-2,05</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-2,18</t>
+          <t>0,79</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-18,11</t>
+          <t>-3,87</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-11,65</t>
+          <t>1,92</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>4,66</t>
+          <t>-0,56</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>4,57</t>
+          <t>4,03</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>1,4</t>
+          <t>2,27</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>4,08</t>
+          <t>0,19</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>-1,37</t>
+          <t>-2,98</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>2,82</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>1,32</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>4,51</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>0,16</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>0,32</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>-3,44</t>
         </is>
       </c>
     </row>
@@ -724,62 +802,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-14,74; 36,07</t>
+          <t>-4,36; 11,6</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,24; 42,54</t>
+          <t>-5,34; 11,39</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-8,71; 41,31</t>
+          <t>-4,28; 13,54</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-28,16; 22,49</t>
+          <t>-10,17; 6,13</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-24,47; 17,39</t>
+          <t>-7,79; 10,55</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-36,66; 2,83</t>
+          <t>-13,35; 5,26</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-29,37; 8,1</t>
+          <t>-6,15; 9,55</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-16,26; 24,35</t>
+          <t>-8,25; 5,57</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-11,26; 23,56</t>
+          <t>-3,51; 11,81</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>-14,85; 19,72</t>
+          <t>-5,96; 10,83</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>-13,21; 22,05</t>
+          <t>-9,4; 9,41</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>-18,83; 17,78</t>
+          <t>-12,58; 6,87</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-2,47; 8,31</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-4,59; 6,35</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-1,1; 9,67</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>-5,57; 5,97</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>-6,2; 6,75</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>-9,77; 3,11</t>
         </is>
       </c>
     </row>
@@ -792,62 +900,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>15,07%</t>
+          <t>28,31%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>28,74%</t>
+          <t>24,37%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>26,72%</t>
+          <t>38,45%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-9,12%</t>
+          <t>-15,96%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-2,73%</t>
+          <t>7,28%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-22,71%</t>
+          <t>-25,03%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-14,6%</t>
+          <t>14,09%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>5,85%</t>
+          <t>-4,1%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>7,08%</t>
+          <t>29,59%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>2,16%</t>
+          <t>16,62%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>6,33%</t>
+          <t>1,18%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>-2,12%</t>
+          <t>-15,62%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>21,3%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>9,99%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>34,09%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>1,19%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>2,4%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>-20,09%</t>
         </is>
       </c>
     </row>
@@ -860,62 +998,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-21,31; 94,88</t>
+          <t>-29,3; 131,39</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-8,92; 115,77</t>
+          <t>-35,05; 122,37</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-12,86; 113,61</t>
+          <t>-28,42; 140,15</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-43,61; 58,54</t>
+          <t>-64,13; 67,69</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-28,44; 25,11</t>
+          <t>-53,68; 203,49</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-42,55; 3,12</t>
+          <t>-67,96; 57,91</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-33,66; 11,95</t>
+          <t>-38,77; 90,4</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-17,65; 35,91</t>
+          <t>-45,1; 55,74</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-15,46; 45,75</t>
+          <t>-22,06; 117,19</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-20,53; 38,62</t>
+          <t>-36,89; 108,77</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>-17,48; 42,02</t>
+          <t>-45,6; 77,16</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>-25,24; 33,35</t>
+          <t>-53,04; 50,59</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-17,51; 75,12</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-29,54; 57,18</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-7,48; 87,98</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>-36,29; 54,51</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>-37,74; 66,54</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>-48,88; 23,93</t>
         </is>
       </c>
     </row>
@@ -932,52 +1100,52 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,24</t>
+          <t>6,35</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-2,2</t>
+          <t>4,44</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-2,31</t>
+          <t>6,89</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-9,68</t>
+          <t>-5,51</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,47</t>
+          <t>-5,73</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-2,2</t>
+          <t>-9,02</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-4,2</t>
+          <t>-1,65</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1,96</t>
+          <t>0,35</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>0,12</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>-2,23</t>
+          <t>-6,44</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
@@ -987,7 +1155,37 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>-4,48</t>
+          <t>-10,36</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>2,53</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>2,51</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>3,74</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>-5,95</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>-4,5</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>-9,69</t>
         </is>
       </c>
     </row>
@@ -1000,62 +1198,92 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-13,18; 20,19</t>
+          <t>-4,91; 20,41</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-16,05; 11,99</t>
+          <t>-6,37; 16,59</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-17,11; 13,16</t>
+          <t>-3,84; 19,87</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-24,64; 6,05</t>
+          <t>-18,22; 17,26</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-14,43; 13,86</t>
+          <t>-29,78; 5,6</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-13,7; 10,8</t>
+          <t>-19,03; 1,72</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-15,12; 10,16</t>
+          <t>-10,7; 7,36</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-11,66; 14,93</t>
+          <t>-8,54; 8,46</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-9,84; 14,12</t>
+          <t>-9,25; 7,56</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>-12,11; 7,26</t>
+          <t>-15,24; 1,65</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>-12,52; 7,71</t>
+          <t>-10,56; 5,04</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>-13,83; 7,75</t>
+          <t>-19,27; -1,97</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-4,75; 10,88</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-4,21; 9,31</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-2,61; 11,85</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>-13,52; 8,47</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>-19,19; 2,61</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>-16,5; -2,86</t>
         </is>
       </c>
     </row>
@@ -1068,62 +1296,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>7,22%</t>
+          <t>26,51%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-4,9%</t>
+          <t>18,55%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-5,15%</t>
+          <t>28,78%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-21,55%</t>
+          <t>-23,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>1,02%</t>
+          <t>-31,09%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-4,81%</t>
+          <t>-41,52%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-9,2%</t>
+          <t>-6,66%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>4,3%</t>
+          <t>1,42%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>4,43%</t>
+          <t>0,5%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>-4,92%</t>
+          <t>-25,92%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>-6,96%</t>
+          <t>-17,1%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>-9,89%</t>
+          <t>-40,46%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>10,39%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>10,29%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>15,33%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>-24,42%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>-24,44%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>-41,04%</t>
         </is>
       </c>
     </row>
@@ -1136,62 +1394,92 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-26,45; 52,77</t>
+          <t>-20,38; 107,66</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-31,1; 31,66</t>
+          <t>-22,55; 88,4</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-32,2; 33,9</t>
+          <t>-14,05; 103,98</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-49,93; 15,81</t>
+          <t>-67,76; 89,5</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-29,2; 35,29</t>
+          <t>-80,63; 64,42</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-27,25; 27,57</t>
+          <t>-68,83; 12,9</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-29,84; 25,68</t>
+          <t>-36,32; 34,76</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-22,65; 38,01</t>
+          <t>-28,5; 41,18</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-19,25; 36,34</t>
+          <t>-31,13; 38,01</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>-24,03; 17,6</t>
+          <t>-52,44; 9,03</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>-25,66; 19,24</t>
+          <t>-48,46; 37,19</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>-28,1; 19,65</t>
+          <t>-61,53; -7,16</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-18,01; 48,77</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-15,04; 43,9</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-10,55; 53,07</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>-52,25; 41,06</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>-61,95; 19,79</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>-59,72; -11,98</t>
         </is>
       </c>
     </row>
@@ -1208,62 +1496,92 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>1,86</t>
+          <t>1,47</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>4,48</t>
+          <t>4,59</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>8,05</t>
+          <t>7,52</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>8,86</t>
+          <t>0,35</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-4,46</t>
+          <t>-2,13</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-0,96</t>
+          <t>-10,44</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-4,26</t>
+          <t>-1,89</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>10,8</t>
+          <t>0,79</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-1,16</t>
+          <t>-0,8</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>1,87</t>
+          <t>-2,99</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>2,2</t>
+          <t>-2,37</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>9,23</t>
+          <t>-11,93</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>-0,24</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>2,66</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>3,3</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>-1,37</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>-2,17</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>-11,15</t>
         </is>
       </c>
     </row>
@@ -1276,62 +1594,92 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-8,42; 14,5</t>
+          <t>-5,17; 8,61</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,1; 15,27</t>
+          <t>-1,53; 11,84</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,94; 20,21</t>
+          <t>0,28; 15,6</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,21; 19,87</t>
+          <t>-7,16; 10,7</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-13,17; 4,76</t>
+          <t>-12,68; 5,03</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-9,55; 7,91</t>
+          <t>-18,8; -3,42</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-12,89; 4,04</t>
+          <t>-7,5; 3,68</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,3; 21,18</t>
+          <t>-4,68; 6,2</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-8,4; 5,96</t>
+          <t>-5,74; 4,83</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>-5,18; 8,62</t>
+          <t>-8,67; 2,09</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>-5,02; 9,81</t>
+          <t>-7,44; 3,27</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>1,82; 16,61</t>
+          <t>-18,89; -5,34</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-4,48; 4,05</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>-1,97; 7,1</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>-1,46; 8,24</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>-6,22; 4,14</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>-7,76; 2,46</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>-16,31; -5,54</t>
         </is>
       </c>
     </row>
@@ -1344,62 +1692,92 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>8,61%</t>
+          <t>11,4%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>20,76%</t>
+          <t>35,54%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>37,31%</t>
+          <t>58,21%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>41,09%</t>
+          <t>2,69%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-16,12%</t>
+          <t>-16,03%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-3,48%</t>
+          <t>-48,37%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-15,41%</t>
+          <t>-12,81%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>39,05%</t>
+          <t>5,37%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-4,76%</t>
+          <t>-5,44%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>7,63%</t>
+          <t>-20,23%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>9,0%</t>
+          <t>-20,08%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>37,72%</t>
+          <t>-55,86%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>-1,7%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>19,2%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>23,8%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>-9,85%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>-17,37%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>-51,91%</t>
         </is>
       </c>
     </row>
@@ -1412,62 +1790,92 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-32,62; 89,79</t>
+          <t>-34,23; 87,42</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-19,63; 94,82</t>
+          <t>-12,54; 117,26</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-12,2; 121,49</t>
+          <t>-0,69; 146,24</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-8,49; 125,47</t>
+          <t>-47,91; 104,95</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-42,34; 21,5</t>
+          <t>-59,88; 58,61</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-29,56; 34,58</t>
+          <t>-70,48; -17,54</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-40,45; 18,5</t>
+          <t>-43,78; 29,91</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,6; 90,93</t>
+          <t>-26,42; 50,52</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-30,56; 28,94</t>
+          <t>-33,45; 41,02</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>-18,03; 42,07</t>
+          <t>-48,14; 17,05</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>-18,08; 46,67</t>
+          <t>-52,68; 36,06</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>4,33; 75,42</t>
+          <t>-73,25; -29,17</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-28,61; 32,84</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>-13,03; 57,81</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>-9,68; 65,89</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>-40,99; 35,03</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>-47,74; 25,16</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>-66,67; -30,34</t>
         </is>
       </c>
     </row>
@@ -1484,62 +1892,92 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>3,52</t>
+          <t>3,56</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,49</t>
+          <t>1,46</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-1,1</t>
+          <t>-0,51</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>19,1</t>
+          <t>-3,32</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,97</t>
+          <t>0,86</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-6,48</t>
+          <t>-13,9</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-1,55</t>
+          <t>1,36</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>4,22</t>
+          <t>-1,14</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>2,43</t>
+          <t>1,69</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>-2,49</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>-1,19</t>
+          <t>1,77</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>12,84</t>
+          <t>-2,05</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>2,45</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>0,18</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>0,63</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>-1,53</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>1,25</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>-8,34</t>
         </is>
       </c>
     </row>
@@ -1552,62 +1990,92 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,4; 13,88</t>
+          <t>-2,96; 10,95</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-8,28; 8,58</t>
+          <t>-4,07; 7,47</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-9,67; 6,55</t>
+          <t>-6,1; 4,26</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>8,29; 30,57</t>
+          <t>-9,03; 5,77</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-9,26; 11,32</t>
+          <t>-8,66; 6,53</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-15,76; 2,36</t>
+          <t>-23,34; -7,38</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-10,66; 7,96</t>
+          <t>-3,28; 6,64</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-6,35; 15,27</t>
+          <t>-5,44; 3,61</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-4,68; 9,73</t>
+          <t>-2,69; 6,43</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>-8,49; 3,65</t>
+          <t>-4,39; 5,04</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>-7,4; 4,67</t>
+          <t>-3,46; 7,25</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>4,1; 20,91</t>
+          <t>-8,25; 4,75</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-1,42; 6,89</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-3,26; 4,09</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>-2,96; 3,96</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>-4,79; 3,97</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>-4,69; 5,03</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>-13,37; -3,35</t>
         </is>
       </c>
     </row>
@@ -1620,62 +2088,92 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>18,12%</t>
+          <t>30,1%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>2,5%</t>
+          <t>12,36%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-5,67%</t>
+          <t>-4,32%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>98,3%</t>
+          <t>-28,08%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>3,9%</t>
+          <t>10,12%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-26,11%</t>
+          <t>-59,72%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-6,26%</t>
+          <t>13,26%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>17,02%</t>
+          <t>-11,09%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>11,16%</t>
+          <t>16,51%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>-11,46%</t>
+          <t>1,92%</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>-5,49%</t>
+          <t>16,95%</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>59,08%</t>
+          <t>-14,35%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>22,29%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>1,61%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>5,75%</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>-13,87%</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>13,19%</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>-43,72%</t>
         </is>
       </c>
     </row>
@@ -1688,62 +2186,92 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-25,56; 93,58</t>
+          <t>-20,05; 109,82</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-35,9; 55,05</t>
+          <t>-27,4; 81,73</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-40,94; 42,95</t>
+          <t>-42,54; 46,39</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>29,12; 197,28</t>
+          <t>-66,49; 77,43</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-33,33; 56,38</t>
+          <t>-61,69; 145,23</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-52,73; 12,43</t>
+          <t>-78,1; -34,05</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-36,26; 40,5</t>
+          <t>-26,34; 81,65</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-23,07; 77,71</t>
+          <t>-42,89; 47,18</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-19,11; 51,53</t>
+          <t>-22,47; 77,67</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>-35,78; 19,54</t>
+          <t>-36,18; 58,32</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>-29,98; 24,25</t>
+          <t>-29,14; 85,06</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>16,08; 109,63</t>
+          <t>-46,33; 50,65</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-12,12; 73,69</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>-27,05; 43,32</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>-23,16; 43,49</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>-40,82; 40,95</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>-37,81; 65,9</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>-61,44; -20,83</t>
         </is>
       </c>
     </row>
@@ -1760,62 +2288,92 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
+          <t>-0,99</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
           <t>-0,03</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>1,64</t>
-        </is>
-      </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>3,79</t>
+          <t>0,4</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-1,96</t>
+          <t>-3,43</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-4,45</t>
+          <t>-0,64</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>2,82</t>
+          <t>-4,48</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>5,52</t>
+          <t>-0,66</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>2,51</t>
+          <t>2,03</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-2,19</t>
+          <t>2,44</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>1,56</t>
+          <t>0,83</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>3,96</t>
+          <t>1,18</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>-0,51</t>
+          <t>-1,05</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>-0,87</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>0,99</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>1,39</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>-1,31</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>0,29</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>-2,71</t>
         </is>
       </c>
     </row>
@@ -1828,62 +2386,92 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-16,43; 14,15</t>
+          <t>-8,85; 3,41</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-14,11; 14,65</t>
+          <t>-6,32; 4,68</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-13,68; 16,8</t>
+          <t>-6,13; 4,86</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-19,12; 11,48</t>
+          <t>-10,72; 0,49</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-16,55; 8,66</t>
+          <t>-3,99; 2,69</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-11,54; 15,67</t>
+          <t>-9,54; -0,3</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-7,34; 19,2</t>
+          <t>-3,3; 2,03</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-11,67; 13,98</t>
+          <t>-1,06; 5,47</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-12,22; 8,66</t>
+          <t>-0,91; 6,16</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>-10,95; 11,72</t>
+          <t>-2,47; 4,88</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>-8,92; 12,88</t>
+          <t>-3,27; 5,17</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>-12,7; 9,82</t>
+          <t>-5,31; 3,37</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>-4,14; 1,59</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>-2,93; 3,85</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>-2,34; 4,53</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>-4,64; 1,58</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>-2,47; 2,94</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>-5,75; 0,26</t>
         </is>
       </c>
     </row>
@@ -1896,62 +2484,92 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>-0,15%</t>
+          <t>-14,56%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>8,34%</t>
+          <t>-0,49%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>19,28%</t>
+          <t>5,87%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-9,98%</t>
+          <t>-50,22%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-31,79%</t>
+          <t>-18,88%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>20,15%</t>
+          <t>-61,91%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>39,44%</t>
+          <t>-23,81%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>17,92%</t>
+          <t>73,71%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-12,41%</t>
+          <t>88,54%</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>8,86%</t>
+          <t>30,11%</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>22,44%</t>
+          <t>32,82%</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>-2,92%</t>
+          <t>-18,05%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>-17,99%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>20,55%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>28,82%</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>-27,31%</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>8,17%</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>-41,75%</t>
         </is>
       </c>
     </row>
@@ -1964,62 +2582,92 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-60,27; 122,65</t>
+          <t>-73,3; 84,23</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-50,35; 116,32</t>
+          <t>-62,05; 118,22</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-46,78; 126,48</t>
+          <t>-61,89; 127,99</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-66,01; 101,52</t>
+          <t>-86,75; 24,58</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-80,0; 149,92</t>
+          <t>-79,81; 168,07</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-53,79; 217,93</t>
+          <t>-89,37; 4,54</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-37,56; 293,61</t>
+          <t>-80,98; 163,79</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-54,33; 181,14</t>
+          <t>-32,51; 373,92</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-53,03; 77,22</t>
+          <t>-32,89; 469,2</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>-44,52; 97,73</t>
+          <t>-66,06; 303,96</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>-36,51; 106,24</t>
+          <t>-59,43; 332,68</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>-48,95; 96,32</t>
+          <t>-66,93; 108,99</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>-60,19; 48,47</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>-42,72; 119,42</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>-39,71; 145,74</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>-69,42; 52,51</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>-52,22; 143,14</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>-70,42; 9,81</t>
         </is>
       </c>
     </row>
@@ -2036,62 +2684,92 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,53</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,53</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>1,45</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,91</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>0,82</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>0,51</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>0,22</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>0,22</t>
         </is>
       </c>
     </row>
@@ -2124,42 +2802,72 @@
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
+          <t>0,0; 2,7</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 2,7</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H25" s="2" t="inlineStr">
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>0,42; 4,1</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 3,05</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I25" s="2" t="inlineStr">
+      <c r="M25" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="J25" s="2" t="inlineStr">
+      <c r="N25" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="K25" s="2" t="inlineStr">
+      <c r="O25" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="L25" s="2" t="inlineStr">
+      <c r="P25" s="2" t="inlineStr">
+        <is>
+          <t>0,24; 2,49</t>
+        </is>
+      </c>
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 2,07</t>
+        </is>
+      </c>
+      <c r="R25" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="M25" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N25" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+      <c r="S25" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 1,13</t>
+        </is>
+      </c>
+      <c r="T25" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 1,13</t>
         </is>
       </c>
     </row>
@@ -2192,42 +2900,72 @@
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="H26" s="2" t="inlineStr">
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="I26" s="2" t="inlineStr">
+      <c r="M26" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="J26" s="2" t="inlineStr">
+      <c r="N26" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="K26" s="2" t="inlineStr">
+      <c r="O26" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="L26" s="2" t="inlineStr">
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="R26" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="M26" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N26" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
+      <c r="S26" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="T26" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -2298,6 +3036,36 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="O27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="S27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -2312,62 +3080,92 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>3,17</t>
+          <t>2,42</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>2,36</t>
+          <t>2,46</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>4,23</t>
+          <t>3,55</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>4,78</t>
+          <t>-2,29</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-2,0</t>
+          <t>-1,02</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-2,89</t>
+          <t>-7,32</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>-1,95</t>
+          <t>-0,17</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>3,77</t>
+          <t>0,59</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,87</t>
+          <t>1,38</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>-1,17</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>1,47</t>
+          <t>-0,48</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
         <is>
-          <t>4,28</t>
+          <t>-4,56</t>
+        </is>
+      </c>
+      <c r="O28" s="2" t="inlineStr">
+        <is>
+          <t>1,1</t>
+        </is>
+      </c>
+      <c r="P28" s="2" t="inlineStr">
+        <is>
+          <t>1,51</t>
+        </is>
+      </c>
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>2,44</t>
+        </is>
+      </c>
+      <c r="R28" s="2" t="inlineStr">
+        <is>
+          <t>-1,72</t>
+        </is>
+      </c>
+      <c r="S28" s="2" t="inlineStr">
+        <is>
+          <t>-0,75</t>
+        </is>
+      </c>
+      <c r="T28" s="2" t="inlineStr">
+        <is>
+          <t>-5,94</t>
         </is>
       </c>
     </row>
@@ -2380,62 +3178,92 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-3,47; 9,95</t>
+          <t>-0,6; 5,73</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-3,78; 8,57</t>
+          <t>-0,36; 5,4</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-1,69; 11,02</t>
+          <t>0,36; 6,84</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 10,81</t>
+          <t>-5,55; 3,06</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-8,75; 4,45</t>
+          <t>-6,3; 2,44</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-8,51; 2,77</t>
+          <t>-10,65; -4,1</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-7,19; 3,47</t>
+          <t>-2,35; 2,35</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 9,91</t>
+          <t>-1,56; 2,77</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-3,52; 5,78</t>
+          <t>-0,82; 3,55</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>-4,04; 3,98</t>
+          <t>-3,27; 1,13</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 5,52</t>
+          <t>-2,68; 1,67</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
         <is>
-          <t>-0,07; 8,9</t>
+          <t>-7,07; -2,15</t>
+        </is>
+      </c>
+      <c r="O29" s="2" t="inlineStr">
+        <is>
+          <t>-0,89; 3,21</t>
+        </is>
+      </c>
+      <c r="P29" s="2" t="inlineStr">
+        <is>
+          <t>-0,46; 3,61</t>
+        </is>
+      </c>
+      <c r="Q29" s="2" t="inlineStr">
+        <is>
+          <t>0,64; 4,39</t>
+        </is>
+      </c>
+      <c r="R29" s="2" t="inlineStr">
+        <is>
+          <t>-3,81; 1,34</t>
+        </is>
+      </c>
+      <c r="S29" s="2" t="inlineStr">
+        <is>
+          <t>-3,67; 1,3</t>
+        </is>
+      </c>
+      <c r="T29" s="2" t="inlineStr">
+        <is>
+          <t>-7,87; -3,74</t>
         </is>
       </c>
     </row>
@@ -2448,62 +3276,92 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>11,09%</t>
+          <t>20,96%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>8,26%</t>
+          <t>21,25%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>14,79%</t>
+          <t>30,69%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>16,71%</t>
+          <t>-19,8%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-5,89%</t>
+          <t>-10,97%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-8,51%</t>
+          <t>-47,02%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>-5,75%</t>
+          <t>-1,65%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>11,13%</t>
+          <t>5,58%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>2,79%</t>
+          <t>13,05%</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>0,07%</t>
+          <t>-11,09%</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>4,73%</t>
+          <t>-5,12%</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
         <is>
-          <t>13,8%</t>
+          <t>-33,89%</t>
+        </is>
+      </c>
+      <c r="O30" s="2" t="inlineStr">
+        <is>
+          <t>9,93%</t>
+        </is>
+      </c>
+      <c r="P30" s="2" t="inlineStr">
+        <is>
+          <t>13,65%</t>
+        </is>
+      </c>
+      <c r="Q30" s="2" t="inlineStr">
+        <is>
+          <t>22,14%</t>
+        </is>
+      </c>
+      <c r="R30" s="2" t="inlineStr">
+        <is>
+          <t>-15,54%</t>
+        </is>
+      </c>
+      <c r="S30" s="2" t="inlineStr">
+        <is>
+          <t>-8,04%</t>
+        </is>
+      </c>
+      <c r="T30" s="2" t="inlineStr">
+        <is>
+          <t>-40,94%</t>
         </is>
       </c>
     </row>
@@ -2516,78 +3374,115 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-10,98; 38,35</t>
+          <t>-4,96; 56,38</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-11,92; 34,23</t>
+          <t>-2,92; 52,3</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-5,54; 43,51</t>
+          <t>2,79; 64,67</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-3,63; 42,49</t>
+          <t>-45,84; 29,75</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-23,05; 14,48</t>
+          <t>-46,89; 34,86</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-22,88; 9,28</t>
+          <t>-59,89; -29,25</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-19,51; 11,9</t>
+          <t>-20,41; 24,73</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-7,43; 32,93</t>
+          <t>-13,62; 29,84</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-10,83; 19,76</t>
+          <t>-7,58; 37,8</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>-12,27; 13,61</t>
+          <t>-28,41; 12,11</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>-9,01; 18,56</t>
+          <t>-25,56; 20,35</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 31,18</t>
+          <t>-46,83; -17,91</t>
+        </is>
+      </c>
+      <c r="O31" s="2" t="inlineStr">
+        <is>
+          <t>-7,53; 30,6</t>
+        </is>
+      </c>
+      <c r="P31" s="2" t="inlineStr">
+        <is>
+          <t>-4,17; 34,92</t>
+        </is>
+      </c>
+      <c r="Q31" s="2" t="inlineStr">
+        <is>
+          <t>5,33; 42,04</t>
+        </is>
+      </c>
+      <c r="R31" s="2" t="inlineStr">
+        <is>
+          <t>-32,52; 13,41</t>
+        </is>
+      </c>
+      <c r="S31" s="2" t="inlineStr">
+        <is>
+          <t>-31,91; 16,42</t>
+        </is>
+      </c>
+      <c r="T31" s="2" t="inlineStr">
+        <is>
+          <t>-50,51; -27,67</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
